--- a/notas.xlsx
+++ b/notas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +826,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="U4" t="n">
         <v>0.3333333333333333</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
@@ -5571,29 +5571,29 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>211063004</t>
+          <t>211062992</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -5617,16 +5617,16 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
@@ -5679,35 +5679,35 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>211063149</t>
+          <t>211063004</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -5725,34 +5725,34 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="W49" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="X49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -5764,40 +5764,40 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>II</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>211063158</t>
+          <t>211063149</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AG50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
@@ -5895,23 +5895,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>211063185</t>
+          <t>211063158</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -5956,10 +5956,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -6003,14 +6003,14 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>211063194</t>
+          <t>211063185</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -6105,6 +6105,114 @@
       <c r="AH52" t="inlineStr">
         <is>
           <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>211063194</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>SS</t>
         </is>
       </c>
     </row>

--- a/notas.xlsx
+++ b/notas.xlsx
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -871,25 +871,25 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
@@ -3523,28 +3523,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -3571,25 +3571,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S29" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4975,25 +4975,25 @@
         <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -5020,11 +5020,11 @@
         <v>1</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>MM</t>
         </is>
       </c>
     </row>

--- a/notas.xlsx
+++ b/notas.xlsx
@@ -700,11 +700,11 @@
         <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>17.99285714285714</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MM</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>29.55357142857143</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
@@ -916,11 +916,11 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>14.32142857142857</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MM</t>
         </is>
       </c>
     </row>
@@ -1024,11 +1024,11 @@
         <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>26.62857142857143</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -1132,11 +1132,11 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>18.02619047619048</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>MM</t>
         </is>
       </c>
     </row>
@@ -1240,11 +1240,11 @@
         <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>26.62857142857143</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -1348,11 +1348,11 @@
         <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>26.68571428571429</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -1456,11 +1456,11 @@
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>27.55</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -1564,11 +1564,11 @@
         <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>27.42380952380953</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -1672,11 +1672,11 @@
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>29.64285714285715</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -1780,11 +1780,11 @@
         <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>16.78095238095238</v>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MM</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
@@ -1996,11 +1996,11 @@
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>25.97857142857143</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>2</v>
+        <v>5.042857142857144</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
@@ -2149,16 +2149,16 @@
         <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2212,11 +2212,11 @@
         <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>31.12857142857143</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -2320,11 +2320,11 @@
         <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>27.07619047619048</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -2428,11 +2428,11 @@
         <v>1</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>24.53809523809524</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2536,11 +2536,11 @@
         <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>24.53809523809524</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2644,11 +2644,11 @@
         <v>1</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>23.96190476190477</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2752,11 +2752,11 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>15.56904761904762</v>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MM</t>
         </is>
       </c>
     </row>
@@ -2860,11 +2860,11 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>23.93571428571429</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
@@ -3076,11 +3076,11 @@
         <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>26.15595238095239</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>4</v>
+        <v>9.521428571428574</v>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
@@ -3292,11 +3292,11 @@
         <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>24.76428571428572</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3400,11 +3400,11 @@
         <v>1</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>20.46190476190477</v>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3508,11 +3508,11 @@
         <v>1</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>24.53809523809524</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -3616,11 +3616,11 @@
         <v>1</v>
       </c>
       <c r="AG29" t="n">
-        <v>8</v>
+        <v>15.13214285714286</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MM</t>
         </is>
       </c>
     </row>
@@ -3724,11 +3724,11 @@
         <v>1</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>27.95238095238096</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
@@ -4048,11 +4048,11 @@
         <v>1</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>16.87380952380953</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>MM</t>
         </is>
       </c>
     </row>
@@ -4156,11 +4156,11 @@
         <v>1</v>
       </c>
       <c r="AG34" t="n">
-        <v>18</v>
+        <v>25.52857142857143</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -4264,11 +4264,11 @@
         <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>18</v>
+        <v>24.41428571428571</v>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -4372,11 +4372,11 @@
         <v>1</v>
       </c>
       <c r="AG36" t="n">
-        <v>21</v>
+        <v>26.56190476190476</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -4480,11 +4480,11 @@
         <v>1</v>
       </c>
       <c r="AG37" t="n">
-        <v>9</v>
+        <v>20.075</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -4588,11 +4588,11 @@
         <v>1</v>
       </c>
       <c r="AG38" t="n">
-        <v>23</v>
+        <v>26.20119047619048</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -4696,11 +4696,11 @@
         <v>1</v>
       </c>
       <c r="AG39" t="n">
-        <v>6</v>
+        <v>11.90238095238095</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MI</t>
         </is>
       </c>
     </row>
@@ -4804,11 +4804,11 @@
         <v>1</v>
       </c>
       <c r="AG40" t="n">
-        <v>18</v>
+        <v>22.78928571428571</v>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>2</v>
+        <v>5.742857142857142</v>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
@@ -5020,11 +5020,11 @@
         <v>1</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>19.06785714285714</v>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -5128,11 +5128,11 @@
         <v>1</v>
       </c>
       <c r="AG43" t="n">
-        <v>20</v>
+        <v>25.44880952380953</v>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
@@ -5344,11 +5344,11 @@
         <v>1</v>
       </c>
       <c r="AG45" t="n">
-        <v>5</v>
+        <v>13.45238095238095</v>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>MI</t>
         </is>
       </c>
     </row>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>1</v>
+        <v>4.026190476190476</v>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
@@ -5884,11 +5884,11 @@
         <v>1</v>
       </c>
       <c r="AG50" t="n">
-        <v>23</v>
+        <v>27.02857142857143</v>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="AG51" t="n">
-        <v>21</v>
+        <v>24.57619047619048</v>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
@@ -6100,11 +6100,11 @@
         <v>1</v>
       </c>
       <c r="AG52" t="n">
-        <v>21</v>
+        <v>26.72857142857143</v>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="AG53" t="n">
-        <v>25</v>
+        <v>30.64285714285715</v>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
